--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.533508</v>
+        <v>0.897137</v>
       </c>
       <c r="H2">
-        <v>10.600524</v>
+        <v>2.691411</v>
       </c>
       <c r="I2">
-        <v>0.0236509744414791</v>
+        <v>0.006112709656408342</v>
       </c>
       <c r="J2">
-        <v>0.02365097444147911</v>
+        <v>0.006112709656408343</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N2">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O2">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P2">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q2">
-        <v>0.746876408124</v>
+        <v>0.328516318071</v>
       </c>
       <c r="R2">
-        <v>6.721887673116</v>
+        <v>2.956646862639</v>
       </c>
       <c r="S2">
-        <v>0.0008977855510028083</v>
+        <v>0.0003911137103582512</v>
       </c>
       <c r="T2">
-        <v>0.0008977855510028084</v>
+        <v>0.0003911137103582512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.533508</v>
+        <v>0.897137</v>
       </c>
       <c r="H3">
-        <v>10.600524</v>
+        <v>2.691411</v>
       </c>
       <c r="I3">
-        <v>0.0236509744414791</v>
+        <v>0.006112709656408342</v>
       </c>
       <c r="J3">
-        <v>0.02365097444147911</v>
+        <v>0.006112709656408343</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.768513</v>
       </c>
       <c r="O3">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P3">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q3">
-        <v>5.616526277868</v>
+        <v>1.426003149093667</v>
       </c>
       <c r="R3">
-        <v>50.54873650081201</v>
+        <v>12.834028341843</v>
       </c>
       <c r="S3">
-        <v>0.006751366202291806</v>
+        <v>0.001697722006320661</v>
       </c>
       <c r="T3">
-        <v>0.006751366202291806</v>
+        <v>0.001697722006320661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.533508</v>
+        <v>0.897137</v>
       </c>
       <c r="H4">
-        <v>10.600524</v>
+        <v>2.691411</v>
       </c>
       <c r="I4">
-        <v>0.0236509744414791</v>
+        <v>0.006112709656408342</v>
       </c>
       <c r="J4">
-        <v>0.02365097444147911</v>
+        <v>0.006112709656408343</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.302142</v>
       </c>
       <c r="O4">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P4">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q4">
-        <v>13.312069724712</v>
+        <v>3.379856589151333</v>
       </c>
       <c r="R4">
-        <v>119.808627522408</v>
+        <v>30.418709302362</v>
       </c>
       <c r="S4">
-        <v>0.01600182268818449</v>
+        <v>0.00402387393972943</v>
       </c>
       <c r="T4">
-        <v>0.0160018226881845</v>
+        <v>0.00402387393972943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>401.874847</v>
       </c>
       <c r="I5">
-        <v>0.8966284812968046</v>
+        <v>0.9127347171890602</v>
       </c>
       <c r="J5">
-        <v>0.8966284812968047</v>
+        <v>0.9127347171890601</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N5">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O5">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P5">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q5">
-        <v>28.3147174840359</v>
+        <v>49.05324569966701</v>
       </c>
       <c r="R5">
-        <v>254.832457356323</v>
+        <v>441.4792112970031</v>
       </c>
       <c r="S5">
-        <v>0.03403581096067179</v>
+        <v>0.05840013379964062</v>
       </c>
       <c r="T5">
-        <v>0.03403581096067179</v>
+        <v>0.0584001337996406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>401.874847</v>
       </c>
       <c r="I6">
-        <v>0.8966284812968046</v>
+        <v>0.9127347171890602</v>
       </c>
       <c r="J6">
-        <v>0.8966284812968047</v>
+        <v>0.9127347171890601</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.768513</v>
       </c>
       <c r="O6">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P6">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q6">
         <v>212.9272702547235</v>
@@ -818,10 +818,10 @@
         <v>1916.345432292511</v>
       </c>
       <c r="S6">
-        <v>0.25595001337547</v>
+        <v>0.253499659300883</v>
       </c>
       <c r="T6">
-        <v>0.25595001337547</v>
+        <v>0.253499659300883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>401.874847</v>
       </c>
       <c r="I7">
-        <v>0.8966284812968046</v>
+        <v>0.9127347171890602</v>
       </c>
       <c r="J7">
-        <v>0.8966284812968047</v>
+        <v>0.9127347171890601</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.302142</v>
       </c>
       <c r="O7">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P7">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q7">
         <v>504.6718430024749</v>
@@ -880,10 +880,10 @@
         <v>4542.046587022274</v>
       </c>
       <c r="S7">
-        <v>0.6066426569606628</v>
+        <v>0.6008349240885366</v>
       </c>
       <c r="T7">
-        <v>0.6066426569606629</v>
+        <v>0.6008349240885366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>35.731278</v>
       </c>
       <c r="I8">
-        <v>0.07972054426171618</v>
+        <v>0.08115257315453157</v>
       </c>
       <c r="J8">
-        <v>0.07972054426171619</v>
+        <v>0.08115257315453157</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N8">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O8">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P8">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q8">
-        <v>2.517502773478</v>
+        <v>4.361395523958</v>
       </c>
       <c r="R8">
-        <v>22.657524961302</v>
+        <v>39.25255971562201</v>
       </c>
       <c r="S8">
-        <v>0.003026173527578875</v>
+        <v>0.005192440959192838</v>
       </c>
       <c r="T8">
-        <v>0.003026173527578875</v>
+        <v>0.005192440959192838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>35.731278</v>
       </c>
       <c r="I9">
-        <v>0.07972054426171618</v>
+        <v>0.08115257315453157</v>
       </c>
       <c r="J9">
-        <v>0.07972054426171619</v>
+        <v>0.08115257315453157</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.768513</v>
       </c>
       <c r="O9">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P9">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q9">
         <v>18.931673738846</v>
@@ -1004,10 +1004,10 @@
         <v>170.385063649614</v>
       </c>
       <c r="S9">
-        <v>0.02275688849474731</v>
+        <v>0.02253902394489779</v>
       </c>
       <c r="T9">
-        <v>0.02275688849474731</v>
+        <v>0.02253902394489779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>35.731278</v>
       </c>
       <c r="I10">
-        <v>0.07972054426171618</v>
+        <v>0.08115257315453157</v>
       </c>
       <c r="J10">
-        <v>0.07972054426171619</v>
+        <v>0.08115257315453157</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.302142</v>
       </c>
       <c r="O10">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P10">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q10">
         <v>44.871108644164</v>
@@ -1066,10 +1066,10 @@
         <v>403.839977797476</v>
       </c>
       <c r="S10">
-        <v>0.05393748223939</v>
+        <v>0.05342110825044095</v>
       </c>
       <c r="T10">
-        <v>0.05393748223939001</v>
+        <v>0.05342110825044095</v>
       </c>
     </row>
   </sheetData>
